--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il34</t>
   </si>
   <si>
     <t>Ptprz1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H2">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I2">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J2">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N2">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O2">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P2">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q2">
-        <v>0.010921928787</v>
+        <v>0.008326846374</v>
       </c>
       <c r="R2">
-        <v>0.098297359083</v>
+        <v>0.07494161736600001</v>
       </c>
       <c r="S2">
-        <v>4.884362117556518E-05</v>
+        <v>0.001063485504316905</v>
       </c>
       <c r="T2">
-        <v>9.889837269080499E-05</v>
+        <v>0.001858367496030531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,75 +587,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.654587</v>
+        <v>0.508158</v>
       </c>
       <c r="H3">
-        <v>4.963761</v>
+        <v>1.524474</v>
       </c>
       <c r="I3">
-        <v>0.05277312046682092</v>
+        <v>0.04862376917091377</v>
       </c>
       <c r="J3">
-        <v>0.07150718413853953</v>
+        <v>0.05726390893452041</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N3">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O3">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P3">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q3">
-        <v>0.027112614111</v>
+        <v>0.3723860588490001</v>
       </c>
       <c r="R3">
-        <v>0.244013526999</v>
+        <v>2.234316353094</v>
       </c>
       <c r="S3">
-        <v>0.0001212494861066307</v>
+        <v>0.04756028366659687</v>
       </c>
       <c r="T3">
-        <v>0.0002455054841744828</v>
+        <v>0.05540554143848989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,60 +664,60 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.654587</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H4">
-        <v>4.963761</v>
+        <v>15.16799</v>
       </c>
       <c r="I4">
-        <v>0.05277312046682092</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J4">
-        <v>0.07150718413853953</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O4">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P4">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q4">
-        <v>0.051632490393</v>
+        <v>0.08284924671222221</v>
       </c>
       <c r="R4">
-        <v>0.464692413537</v>
+        <v>0.74564322041</v>
       </c>
       <c r="S4">
-        <v>0.0002309040692618737</v>
+        <v>0.01058131361677783</v>
       </c>
       <c r="T4">
-        <v>0.0004675336543046553</v>
+        <v>0.01849011501417285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.654587</v>
+        <v>5.055996666666666</v>
       </c>
       <c r="H5">
-        <v>4.963761</v>
+        <v>15.16799</v>
       </c>
       <c r="I5">
-        <v>0.05277312046682092</v>
+        <v>0.4837897166804604</v>
       </c>
       <c r="J5">
-        <v>0.07150718413853953</v>
+        <v>0.5697561244597915</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,246 +744,246 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N5">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O5">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P5">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q5">
-        <v>11.7109376257005</v>
+        <v>3.705112725281666</v>
       </c>
       <c r="R5">
-        <v>70.265625754203</v>
+        <v>22.23067635169</v>
       </c>
       <c r="S5">
-        <v>0.05237212329027686</v>
+        <v>0.4732084030636827</v>
       </c>
       <c r="T5">
-        <v>0.07069524662736959</v>
+        <v>0.5512660094456187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.055996666666666</v>
+        <v>0.06272999999999999</v>
       </c>
       <c r="H6">
-        <v>15.16799</v>
+        <v>0.18819</v>
       </c>
       <c r="I6">
-        <v>0.1612612217851615</v>
+        <v>0.006002402874876358</v>
       </c>
       <c r="J6">
-        <v>0.2185077512679451</v>
+        <v>0.007068992335971224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N6">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O6">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P6">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q6">
-        <v>0.03337463399666667</v>
+        <v>0.00102791469</v>
       </c>
       <c r="R6">
-        <v>0.30037170597</v>
+        <v>0.00925123221</v>
       </c>
       <c r="S6">
-        <v>0.0001492536722768806</v>
+        <v>0.0001312828799030999</v>
       </c>
       <c r="T6">
-        <v>0.0003022082505564638</v>
+        <v>0.0002294077688947045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.055996666666666</v>
+        <v>0.06272999999999999</v>
       </c>
       <c r="H7">
-        <v>15.16799</v>
+        <v>0.18819</v>
       </c>
       <c r="I7">
-        <v>0.1612612217851615</v>
+        <v>0.006002402874876358</v>
       </c>
       <c r="J7">
-        <v>0.2185077512679451</v>
+        <v>0.007068992335971224</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N7">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O7">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P7">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q7">
-        <v>0.08284924671222221</v>
+        <v>0.045969516315</v>
       </c>
       <c r="R7">
-        <v>0.74564322041</v>
+        <v>0.27581709789</v>
       </c>
       <c r="S7">
-        <v>0.0003705075632711796</v>
+        <v>0.005871119994973259</v>
       </c>
       <c r="T7">
-        <v>0.0007502022617333335</v>
+        <v>0.00683958456707652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.055996666666666</v>
+        <v>4.730544999999999</v>
       </c>
       <c r="H8">
-        <v>15.16799</v>
+        <v>9.461089999999999</v>
       </c>
       <c r="I8">
-        <v>0.1612612217851615</v>
+        <v>0.4526484442488758</v>
       </c>
       <c r="J8">
-        <v>0.2185077512679451</v>
+        <v>0.355387495084404</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N8">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O8">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P8">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q8">
-        <v>0.1577757466477777</v>
+        <v>0.07751628721833331</v>
       </c>
       <c r="R8">
-        <v>1.41998171983</v>
+        <v>0.4650977233099999</v>
       </c>
       <c r="S8">
-        <v>0.0007055840548171854</v>
+        <v>0.009900200400306229</v>
       </c>
       <c r="T8">
-        <v>0.001428663828326237</v>
+        <v>0.01153327779484563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.055996666666666</v>
+        <v>4.730544999999999</v>
       </c>
       <c r="H9">
-        <v>15.16799</v>
+        <v>9.461089999999999</v>
       </c>
       <c r="I9">
-        <v>0.1612612217851615</v>
+        <v>0.4526484442488758</v>
       </c>
       <c r="J9">
-        <v>0.2185077512679451</v>
+        <v>0.355387495084404</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,276 +992,152 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N9">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O9">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P9">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q9">
-        <v>35.78564415112833</v>
+        <v>3.4666166994475</v>
       </c>
       <c r="R9">
-        <v>214.71386490677</v>
+        <v>13.86646679779</v>
       </c>
       <c r="S9">
-        <v>0.1600358764947963</v>
+        <v>0.4427482438485696</v>
       </c>
       <c r="T9">
-        <v>0.216026676927329</v>
+        <v>0.3438542172895584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>24.6422525</v>
+        <v>0.093385</v>
       </c>
       <c r="H10">
-        <v>49.284505</v>
+        <v>0.280155</v>
       </c>
       <c r="I10">
-        <v>0.7859656577480175</v>
+        <v>0.008935667024873724</v>
       </c>
       <c r="J10">
-        <v>0.7099850645935154</v>
+        <v>0.01052347918531281</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N10">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O10">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P10">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q10">
-        <v>0.1626635087525</v>
+        <v>0.001530237738333333</v>
       </c>
       <c r="R10">
-        <v>0.9759810525150001</v>
+        <v>0.013772139645</v>
       </c>
       <c r="S10">
-        <v>0.0007274424651122147</v>
+        <v>0.0001954384144707634</v>
       </c>
       <c r="T10">
-        <v>0.0009819484345382147</v>
+        <v>0.0003415151362702371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>24.6422525</v>
+        <v>0.093385</v>
       </c>
       <c r="H11">
-        <v>49.284505</v>
+        <v>0.280155</v>
       </c>
       <c r="I11">
-        <v>0.7859656577480175</v>
+        <v>0.008935667024873724</v>
       </c>
       <c r="J11">
-        <v>0.7099850645935154</v>
+        <v>0.01052347918531281</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N11">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O11">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P11">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q11">
-        <v>0.4037961635491667</v>
+        <v>0.06843397546750001</v>
       </c>
       <c r="R11">
-        <v>2.422776981295</v>
+        <v>0.410603852805</v>
       </c>
       <c r="S11">
-        <v>0.00180580438026821</v>
+        <v>0.008740228610402962</v>
       </c>
       <c r="T11">
-        <v>0.002437590420313291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>24.6422525</v>
-      </c>
-      <c r="H12">
-        <v>49.284505</v>
-      </c>
-      <c r="I12">
-        <v>0.7859656577480175</v>
-      </c>
-      <c r="J12">
-        <v>0.7099850645935154</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P12">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q12">
-        <v>0.7689779174308333</v>
-      </c>
-      <c r="R12">
-        <v>4.613867504585</v>
-      </c>
-      <c r="S12">
-        <v>0.003438922448942594</v>
-      </c>
-      <c r="T12">
-        <v>0.004642077796099784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>24.6422525</v>
-      </c>
-      <c r="H13">
-        <v>49.284505</v>
-      </c>
-      <c r="I13">
-        <v>0.7859656577480175</v>
-      </c>
-      <c r="J13">
-        <v>0.7099850645935154</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.0778615</v>
-      </c>
-      <c r="N13">
-        <v>14.155723</v>
-      </c>
-      <c r="O13">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P13">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q13">
-        <v>174.4144502430288</v>
-      </c>
-      <c r="R13">
-        <v>697.6578009721151</v>
-      </c>
-      <c r="S13">
-        <v>0.7799934884536945</v>
-      </c>
-      <c r="T13">
-        <v>0.7019234479425642</v>
+        <v>0.01018196404904258</v>
       </c>
     </row>
   </sheetData>
